--- a/Boston Houses.xlsx
+++ b/Boston Houses.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>CRIM</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>MEDV</t>
-  </si>
-  <si>
-    <t>MEDVC</t>
   </si>
 </sst>
 </file>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O507"/>
+  <dimension ref="A1:N507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="N496" sqref="N496"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +446,7 @@
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,11 +489,8 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -537,7 +531,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -578,7 +572,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.6720199999999998</v>
       </c>
@@ -621,11 +615,8 @@
       <c r="N4">
         <v>8.5</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -666,7 +657,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -707,7 +698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -748,7 +739,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -789,7 +780,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -830,7 +821,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -871,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -912,7 +903,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -953,7 +944,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -991,7 +982,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1032,7 +1023,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1073,7 +1064,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1114,7 +1105,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1155,7 +1146,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1196,7 +1187,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1237,7 +1228,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9.3388899999999992</v>
       </c>
@@ -1280,11 +1271,8 @@
       <c r="N20">
         <v>9.5</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1325,7 +1313,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1366,7 +1354,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1407,7 +1395,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1448,7 +1436,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1486,7 +1474,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1524,7 +1512,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1565,7 +1553,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1606,7 +1594,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1647,7 +1635,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1688,7 +1676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1729,7 +1717,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.18337000000000001</v>
       </c>
@@ -1769,11 +1757,8 @@
       <c r="N32">
         <v>7</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.20746000000000001</v>
       </c>
@@ -1813,11 +1798,8 @@
       <c r="N33">
         <v>8.1</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.7310000000000001E-2</v>
       </c>
@@ -1860,11 +1842,8 @@
       <c r="N34">
         <v>21.6</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.17004</v>
       </c>
@@ -1907,11 +1886,8 @@
       <c r="N35">
         <v>18.899999999999999</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.22489000000000001</v>
       </c>
@@ -1954,11 +1930,8 @@
       <c r="N36">
         <v>15</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.11747</v>
       </c>
@@ -2001,11 +1974,8 @@
       <c r="N37">
         <v>18.899999999999999</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9.3780000000000002E-2</v>
       </c>
@@ -2048,11 +2018,8 @@
       <c r="N38">
         <v>21.7</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.62975999999999999</v>
       </c>
@@ -2095,11 +2062,8 @@
       <c r="N39">
         <v>20.399999999999999</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.63795999999999997</v>
       </c>
@@ -2142,11 +2106,8 @@
       <c r="N40">
         <v>18.2</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.62739</v>
       </c>
@@ -2186,11 +2147,8 @@
       <c r="N41">
         <v>19.899999999999999</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.78420000000000001</v>
       </c>
@@ -2233,11 +2191,8 @@
       <c r="N42">
         <v>17.5</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.7258</v>
       </c>
@@ -2280,11 +2235,8 @@
       <c r="N43">
         <v>18.2</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.25179</v>
       </c>
@@ -2324,11 +2276,8 @@
       <c r="N44">
         <v>13.6</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.85204000000000002</v>
       </c>
@@ -2371,11 +2320,8 @@
       <c r="N45">
         <v>19.600000000000001</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.23247</v>
       </c>
@@ -2418,11 +2364,8 @@
       <c r="N46">
         <v>15.2</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.98843000000000003</v>
       </c>
@@ -2465,11 +2408,8 @@
       <c r="N47">
         <v>14.5</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.75026000000000004</v>
       </c>
@@ -2512,11 +2452,8 @@
       <c r="N48">
         <v>15.6</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.84053999999999995</v>
       </c>
@@ -2559,11 +2496,8 @@
       <c r="N49">
         <v>13.9</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.67191000000000001</v>
       </c>
@@ -2606,11 +2540,8 @@
       <c r="N50">
         <v>16.600000000000001</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.95577000000000001</v>
       </c>
@@ -2653,11 +2584,8 @@
       <c r="N51">
         <v>14.8</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.77298999999999995</v>
       </c>
@@ -2700,11 +2628,8 @@
       <c r="N52">
         <v>18.399999999999999</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.0024500000000001</v>
       </c>
@@ -2747,11 +2672,8 @@
       <c r="N53">
         <v>21</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1.1308100000000001</v>
       </c>
@@ -2794,11 +2716,8 @@
       <c r="N54">
         <v>12.7</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.3547199999999999</v>
       </c>
@@ -2841,11 +2760,8 @@
       <c r="N55">
         <v>14.5</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.3879900000000001</v>
       </c>
@@ -2888,11 +2804,8 @@
       <c r="N56">
         <v>13.2</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.1517200000000001</v>
       </c>
@@ -2935,11 +2848,8 @@
       <c r="N57">
         <v>13.1</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.6128199999999999</v>
       </c>
@@ -2982,11 +2892,8 @@
       <c r="N58">
         <v>13.5</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6.4170000000000005E-2</v>
       </c>
@@ -3029,11 +2936,8 @@
       <c r="N59">
         <v>18.899999999999999</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>9.7439999999999999E-2</v>
       </c>
@@ -3076,11 +2980,8 @@
       <c r="N60">
         <v>20</v>
       </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>8.0140000000000003E-2</v>
       </c>
@@ -3120,11 +3021,8 @@
       <c r="N61">
         <v>21</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.12268999999999999</v>
       </c>
@@ -3167,11 +3065,8 @@
       <c r="N62">
         <v>21.2</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.17141999999999999</v>
       </c>
@@ -3214,11 +3109,8 @@
       <c r="N63">
         <v>19.3</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.18836</v>
       </c>
@@ -3261,11 +3153,8 @@
       <c r="N64">
         <v>20</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.22927</v>
       </c>
@@ -3308,11 +3197,8 @@
       <c r="N65">
         <v>16.600000000000001</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.21976999999999999</v>
       </c>
@@ -3355,11 +3241,8 @@
       <c r="N66">
         <v>19.399999999999999</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>8.8730000000000003E-2</v>
       </c>
@@ -3399,11 +3282,8 @@
       <c r="N67">
         <v>19.7</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4.3369999999999999E-2</v>
       </c>
@@ -3446,11 +3326,8 @@
       <c r="N68">
         <v>20.5</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.3599999999999999E-2</v>
       </c>
@@ -3493,11 +3370,8 @@
       <c r="N69">
         <v>18.899999999999999</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.10328</v>
       </c>
@@ -3540,11 +3414,8 @@
       <c r="N70">
         <v>19.600000000000001</v>
       </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.14932000000000001</v>
       </c>
@@ -3584,11 +3455,8 @@
       <c r="N71">
         <v>18.7</v>
       </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.17171</v>
       </c>
@@ -3631,11 +3499,8 @@
       <c r="N72">
         <v>16</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4.3790000000000003E-2</v>
       </c>
@@ -3678,11 +3543,8 @@
       <c r="N73">
         <v>19.399999999999999</v>
       </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.12816</v>
       </c>
@@ -3725,11 +3587,8 @@
       <c r="N74">
         <v>20.9</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.15876000000000001</v>
       </c>
@@ -3772,11 +3631,8 @@
       <c r="N75">
         <v>21.7</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>9.5119999999999996E-2</v>
       </c>
@@ -3819,11 +3675,8 @@
       <c r="N76">
         <v>21.4</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.10153</v>
       </c>
@@ -3866,11 +3719,8 @@
       <c r="N77">
         <v>20</v>
       </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>8.7069999999999995E-2</v>
       </c>
@@ -3913,11 +3763,8 @@
       <c r="N78">
         <v>20.8</v>
       </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8.387E-2</v>
       </c>
@@ -3960,11 +3807,8 @@
       <c r="N79">
         <v>20.3</v>
       </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4.2939999999999999E-2</v>
       </c>
@@ -4007,11 +3851,8 @@
       <c r="N80">
         <v>20.6</v>
       </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.11504</v>
       </c>
@@ -4054,11 +3895,8 @@
       <c r="N81">
         <v>21.4</v>
       </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>6.8599999999999994E-2</v>
       </c>
@@ -4101,11 +3939,8 @@
       <c r="N82">
         <v>33.200000000000003</v>
       </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.14865999999999999</v>
       </c>
@@ -4148,11 +3983,8 @@
       <c r="N83">
         <v>27.5</v>
       </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.11432</v>
       </c>
@@ -4195,11 +4027,8 @@
       <c r="N84">
         <v>26.5</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.22875999999999999</v>
       </c>
@@ -4242,11 +4071,8 @@
       <c r="N85">
         <v>18.600000000000001</v>
       </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.21160999999999999</v>
       </c>
@@ -4289,11 +4115,8 @@
       <c r="N86">
         <v>19.3</v>
       </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.1396</v>
       </c>
@@ -4336,11 +4159,8 @@
       <c r="N87">
         <v>20.100000000000001</v>
       </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.13261999999999999</v>
       </c>
@@ -4383,11 +4203,8 @@
       <c r="N88">
         <v>19.5</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.13117000000000001</v>
       </c>
@@ -4430,11 +4247,8 @@
       <c r="N89">
         <v>20.399999999999999</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.12801999999999999</v>
       </c>
@@ -4477,11 +4291,8 @@
       <c r="N90">
         <v>19.8</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.26362999999999998</v>
       </c>
@@ -4524,11 +4335,8 @@
       <c r="N91">
         <v>19.399999999999999</v>
       </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.10793</v>
       </c>
@@ -4571,11 +4379,8 @@
       <c r="N92">
         <v>21.7</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.12329</v>
       </c>
@@ -4618,11 +4423,8 @@
       <c r="N93">
         <v>18.8</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.22212000000000001</v>
       </c>
@@ -4665,11 +4467,8 @@
       <c r="N94">
         <v>18.7</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.14230999999999999</v>
       </c>
@@ -4712,11 +4511,8 @@
       <c r="N95">
         <v>18.5</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.17133999999999999</v>
       </c>
@@ -4756,11 +4552,8 @@
       <c r="N96">
         <v>18.3</v>
       </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.13158</v>
       </c>
@@ -4803,11 +4596,8 @@
       <c r="N97">
         <v>21.2</v>
       </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.15098</v>
       </c>
@@ -4850,11 +4640,8 @@
       <c r="N98">
         <v>19.2</v>
       </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.13058</v>
       </c>
@@ -4897,11 +4684,8 @@
       <c r="N99">
         <v>20.399999999999999</v>
       </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.14476</v>
       </c>
@@ -4944,11 +4728,8 @@
       <c r="N100">
         <v>19.3</v>
       </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>7.1650000000000005E-2</v>
       </c>
@@ -4991,11 +4772,8 @@
       <c r="N101">
         <v>20.3</v>
       </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>9.2990000000000003E-2</v>
       </c>
@@ -5035,11 +4813,8 @@
       <c r="N102">
         <v>20.5</v>
       </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.15038000000000001</v>
       </c>
@@ -5082,11 +4857,8 @@
       <c r="N103">
         <v>17.3</v>
       </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>9.8489999999999994E-2</v>
       </c>
@@ -5129,11 +4901,8 @@
       <c r="N104">
         <v>18.8</v>
       </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.16902</v>
       </c>
@@ -5176,11 +4945,8 @@
       <c r="N105">
         <v>21.4</v>
       </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.38735000000000003</v>
       </c>
@@ -5223,11 +4989,8 @@
       <c r="N106">
         <v>15.7</v>
       </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.25914999999999999</v>
       </c>
@@ -5270,11 +5033,8 @@
       <c r="N107">
         <v>16.2</v>
       </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.32543</v>
       </c>
@@ -5317,11 +5077,8 @@
       <c r="N108">
         <v>18</v>
       </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.88124999999999998</v>
       </c>
@@ -5364,11 +5121,8 @@
       <c r="N109">
         <v>14.3</v>
       </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.34005999999999997</v>
       </c>
@@ -5411,11 +5165,8 @@
       <c r="N110">
         <v>19.2</v>
       </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1.1929399999999999</v>
       </c>
@@ -5458,11 +5209,8 @@
       <c r="N111">
         <v>19.600000000000001</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.32982</v>
       </c>
@@ -5505,11 +5253,8 @@
       <c r="N112">
         <v>18.399999999999999</v>
       </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.97616999999999998</v>
       </c>
@@ -5549,11 +5294,8 @@
       <c r="N113">
         <v>15.6</v>
       </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.55778000000000005</v>
       </c>
@@ -5596,11 +5338,8 @@
       <c r="N114">
         <v>18.100000000000001</v>
       </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.32263999999999998</v>
       </c>
@@ -5643,11 +5382,8 @@
       <c r="N115">
         <v>17.399999999999999</v>
       </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.35232999999999998</v>
       </c>
@@ -5690,11 +5426,8 @@
       <c r="N116">
         <v>17.100000000000001</v>
       </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.24979999999999999</v>
       </c>
@@ -5737,11 +5470,8 @@
       <c r="N117">
         <v>13.3</v>
       </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.54452</v>
       </c>
@@ -5784,11 +5514,8 @@
       <c r="N118">
         <v>17.8</v>
       </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.29089999999999999</v>
       </c>
@@ -5828,11 +5555,8 @@
       <c r="N119">
         <v>14</v>
       </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1.6286400000000001</v>
       </c>
@@ -5875,11 +5599,8 @@
       <c r="N120">
         <v>14.4</v>
       </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>3.3210500000000001</v>
       </c>
@@ -5919,11 +5640,8 @@
       <c r="N121">
         <v>13.4</v>
       </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>4.0974000000000004</v>
       </c>
@@ -5966,11 +5684,8 @@
       <c r="N122">
         <v>15.6</v>
       </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2.7797399999999999</v>
       </c>
@@ -6013,11 +5728,8 @@
       <c r="N123">
         <v>11.8</v>
       </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2.37934</v>
       </c>
@@ -6057,11 +5769,8 @@
       <c r="N124">
         <v>13.8</v>
       </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2.1550500000000001</v>
       </c>
@@ -6104,11 +5813,8 @@
       <c r="N125">
         <v>15.6</v>
       </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2.3686199999999999</v>
       </c>
@@ -6148,11 +5854,8 @@
       <c r="N126">
         <v>14.6</v>
       </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2.3309899999999999</v>
       </c>
@@ -6195,11 +5898,8 @@
       <c r="N127">
         <v>17.8</v>
       </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2.7339699999999998</v>
       </c>
@@ -6242,11 +5942,8 @@
       <c r="N128">
         <v>15.4</v>
       </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1.6566000000000001</v>
       </c>
@@ -6289,11 +5986,8 @@
       <c r="N129">
         <v>21.5</v>
       </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1.4963200000000001</v>
       </c>
@@ -6336,11 +6030,8 @@
       <c r="N130">
         <v>19.600000000000001</v>
       </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1.1265799999999999</v>
       </c>
@@ -6383,11 +6074,8 @@
       <c r="N131">
         <v>15.3</v>
       </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2.1491799999999999</v>
       </c>
@@ -6430,11 +6118,8 @@
       <c r="N132">
         <v>19.399999999999999</v>
       </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1.4138500000000001</v>
       </c>
@@ -6477,11 +6162,8 @@
       <c r="N133">
         <v>17</v>
       </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3.5350100000000002</v>
       </c>
@@ -6524,11 +6206,8 @@
       <c r="N134">
         <v>15.6</v>
       </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2.4466800000000002</v>
       </c>
@@ -6571,11 +6250,8 @@
       <c r="N135">
         <v>13.1</v>
       </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1.34284</v>
       </c>
@@ -6618,11 +6294,8 @@
       <c r="N136">
         <v>24.3</v>
       </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2.3003999999999998</v>
       </c>
@@ -6665,11 +6338,8 @@
       <c r="N137">
         <v>23.8</v>
       </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1.2074199999999999</v>
       </c>
@@ -6709,11 +6379,8 @@
       <c r="N138">
         <v>17.399999999999999</v>
       </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2.3138999999999998</v>
       </c>
@@ -6756,11 +6423,8 @@
       <c r="N139">
         <v>19.100000000000001</v>
       </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.12579000000000001</v>
       </c>
@@ -6803,11 +6467,8 @@
       <c r="N140">
         <v>29.8</v>
       </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3.15E-2</v>
       </c>
@@ -6850,11 +6511,8 @@
       <c r="N141">
         <v>34.9</v>
       </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1.7780000000000001E-2</v>
       </c>
@@ -6897,11 +6555,8 @@
       <c r="N142">
         <v>32.9</v>
       </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3.4450000000000001E-2</v>
       </c>
@@ -6944,11 +6599,8 @@
       <c r="N143">
         <v>24.1</v>
       </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2.1770000000000001E-2</v>
       </c>
@@ -6991,11 +6643,8 @@
       <c r="N144">
         <v>42.3</v>
       </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3.5099999999999999E-2</v>
       </c>
@@ -7035,11 +6684,8 @@
       <c r="N145">
         <v>48.5</v>
       </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2.009E-2</v>
       </c>
@@ -7082,11 +6728,8 @@
       <c r="N146">
         <v>50</v>
       </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0.13642000000000001</v>
       </c>
@@ -7129,11 +6772,8 @@
       <c r="N147">
         <v>22.6</v>
       </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.22969000000000001</v>
       </c>
@@ -7176,11 +6816,8 @@
       <c r="N148">
         <v>24.4</v>
       </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0.25198999999999999</v>
       </c>
@@ -7223,11 +6860,8 @@
       <c r="N149">
         <v>22.5</v>
       </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0.13586999999999999</v>
       </c>
@@ -7270,11 +6904,8 @@
       <c r="N150">
         <v>24.4</v>
       </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0.43570999999999999</v>
       </c>
@@ -7314,11 +6945,8 @@
       <c r="N151">
         <v>20</v>
       </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>0.17446</v>
       </c>
@@ -7361,11 +6989,8 @@
       <c r="N152">
         <v>21.7</v>
       </c>
-      <c r="O152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>0.37578</v>
       </c>
@@ -7408,11 +7033,8 @@
       <c r="N153">
         <v>19.3</v>
       </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0.11069</v>
       </c>
@@ -7455,11 +7077,8 @@
       <c r="N154">
         <v>21.5</v>
       </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0.40771000000000002</v>
       </c>
@@ -7502,11 +7121,8 @@
       <c r="N155">
         <v>21.7</v>
       </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0.29819000000000001</v>
       </c>
@@ -7549,11 +7165,8 @@
       <c r="N156">
         <v>46.7</v>
       </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>8.2439999999999999E-2</v>
       </c>
@@ -7596,11 +7209,8 @@
       <c r="N157">
         <v>23.7</v>
       </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0.10612000000000001</v>
       </c>
@@ -7643,11 +7253,8 @@
       <c r="N158">
         <v>20.100000000000001</v>
       </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0.20608000000000001</v>
       </c>
@@ -7690,11 +7297,8 @@
       <c r="N159">
         <v>17.600000000000001</v>
       </c>
-      <c r="O159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0.19133</v>
       </c>
@@ -7737,11 +7341,8 @@
       <c r="N160">
         <v>18.5</v>
       </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0.19656999999999999</v>
       </c>
@@ -7784,11 +7385,8 @@
       <c r="N161">
         <v>20.5</v>
       </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0.16439000000000001</v>
       </c>
@@ -7831,11 +7429,8 @@
       <c r="N162">
         <v>24.5</v>
       </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>4.8189999999999997E-2</v>
       </c>
@@ -7878,11 +7473,8 @@
       <c r="N163">
         <v>21.9</v>
       </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3.5479999999999998E-2</v>
       </c>
@@ -7925,11 +7517,8 @@
       <c r="N164">
         <v>20.9</v>
       </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0.66351000000000004</v>
       </c>
@@ -7972,11 +7561,8 @@
       <c r="N165">
         <v>36</v>
       </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>0.54049999999999998</v>
       </c>
@@ -8019,11 +7605,8 @@
       <c r="N166">
         <v>43.5</v>
       </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>9.0649999999999994E-2</v>
       </c>
@@ -8066,11 +7649,8 @@
       <c r="N167">
         <v>20.7</v>
       </c>
-      <c r="O167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>0.29915999999999998</v>
       </c>
@@ -8110,11 +7690,8 @@
       <c r="N168">
         <v>21.1</v>
       </c>
-      <c r="O168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7.9780000000000004E-2</v>
       </c>
@@ -8157,11 +7734,8 @@
       <c r="N169">
         <v>29.1</v>
       </c>
-      <c r="O169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1.9650000000000001E-2</v>
       </c>
@@ -8201,11 +7775,8 @@
       <c r="N170">
         <v>20.100000000000001</v>
       </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>4.5900000000000003E-2</v>
       </c>
@@ -8248,11 +7819,8 @@
       <c r="N171">
         <v>22.3</v>
       </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>8.1989999999999993E-2</v>
       </c>
@@ -8295,11 +7863,8 @@
       <c r="N172">
         <v>21.7</v>
       </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.14102999999999999</v>
       </c>
@@ -8339,11 +7904,8 @@
       <c r="N173">
         <v>20.3</v>
       </c>
-      <c r="O173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>6.4659999999999995E-2</v>
       </c>
@@ -8386,11 +7948,8 @@
       <c r="N174">
         <v>22.5</v>
       </c>
-      <c r="O174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>5.561E-2</v>
       </c>
@@ -8433,11 +7992,8 @@
       <c r="N175">
         <v>29</v>
       </c>
-      <c r="O175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>4.4170000000000001E-2</v>
       </c>
@@ -8477,11 +8033,8 @@
       <c r="N176">
         <v>24.8</v>
       </c>
-      <c r="O176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3.5369999999999999E-2</v>
       </c>
@@ -8521,11 +8074,8 @@
       <c r="N177">
         <v>22</v>
       </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>9.2660000000000006E-2</v>
       </c>
@@ -8568,11 +8118,8 @@
       <c r="N178">
         <v>26.4</v>
       </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>0.1</v>
       </c>
@@ -8615,11 +8162,8 @@
       <c r="N179">
         <v>33.1</v>
       </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>5.5149999999999998E-2</v>
       </c>
@@ -8662,11 +8206,8 @@
       <c r="N180">
         <v>36.1</v>
       </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>5.4789999999999998E-2</v>
       </c>
@@ -8709,11 +8250,8 @@
       <c r="N181">
         <v>28.4</v>
       </c>
-      <c r="O181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>7.5029999999999999E-2</v>
       </c>
@@ -8756,11 +8294,8 @@
       <c r="N182">
         <v>33.4</v>
       </c>
-      <c r="O182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>4.9320000000000003E-2</v>
       </c>
@@ -8803,11 +8338,8 @@
       <c r="N183">
         <v>28.2</v>
       </c>
-      <c r="O183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0.49297999999999997</v>
       </c>
@@ -8850,11 +8382,8 @@
       <c r="N184">
         <v>22.8</v>
       </c>
-      <c r="O184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0.34939999999999999</v>
       </c>
@@ -8897,11 +8426,8 @@
       <c r="N185">
         <v>20.3</v>
       </c>
-      <c r="O185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2.6354799999999998</v>
       </c>
@@ -8941,11 +8467,8 @@
       <c r="N186">
         <v>16.100000000000001</v>
       </c>
-      <c r="O186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0.26168999999999998</v>
       </c>
@@ -8988,11 +8511,8 @@
       <c r="N187">
         <v>19.399999999999999</v>
       </c>
-      <c r="O187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>0.26938000000000001</v>
       </c>
@@ -9035,11 +8555,8 @@
       <c r="N188">
         <v>21.6</v>
       </c>
-      <c r="O188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0.25356000000000001</v>
       </c>
@@ -9082,11 +8599,8 @@
       <c r="N189">
         <v>16.2</v>
       </c>
-      <c r="O189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.31827</v>
       </c>
@@ -9129,11 +8643,8 @@
       <c r="N190">
         <v>17.8</v>
       </c>
-      <c r="O190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.24521999999999999</v>
       </c>
@@ -9176,11 +8687,8 @@
       <c r="N191">
         <v>19.8</v>
       </c>
-      <c r="O191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.40201999999999999</v>
       </c>
@@ -9223,11 +8731,8 @@
       <c r="N192">
         <v>23.1</v>
       </c>
-      <c r="O192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0.47547</v>
       </c>
@@ -9270,11 +8775,8 @@
       <c r="N193">
         <v>21</v>
       </c>
-      <c r="O193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0.35114000000000001</v>
       </c>
@@ -9317,11 +8819,8 @@
       <c r="N194">
         <v>20.399999999999999</v>
       </c>
-      <c r="O194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0.28392000000000001</v>
       </c>
@@ -9364,11 +8863,8 @@
       <c r="N195">
         <v>18.5</v>
       </c>
-      <c r="O195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>6.6170000000000007E-2</v>
       </c>
@@ -9411,11 +8907,8 @@
       <c r="N196">
         <v>19.3</v>
       </c>
-      <c r="O196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>4.5440000000000001E-2</v>
       </c>
@@ -9458,11 +8951,8 @@
       <c r="N197">
         <v>19.8</v>
       </c>
-      <c r="O197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>5.0229999999999997E-2</v>
       </c>
@@ -9505,11 +8995,8 @@
       <c r="N198">
         <v>17.100000000000001</v>
       </c>
-      <c r="O198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3.4660000000000003E-2</v>
       </c>
@@ -9552,11 +9039,8 @@
       <c r="N199">
         <v>19.399999999999999</v>
       </c>
-      <c r="O199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3.7379999999999997E-2</v>
       </c>
@@ -9599,11 +9083,8 @@
       <c r="N200">
         <v>20.7</v>
       </c>
-      <c r="O200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3.9609999999999999E-2</v>
       </c>
@@ -9646,11 +9127,8 @@
       <c r="N201">
         <v>21.1</v>
       </c>
-      <c r="O201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3.4270000000000002E-2</v>
       </c>
@@ -9693,11 +9171,8 @@
       <c r="N202">
         <v>19.5</v>
       </c>
-      <c r="O202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3.041E-2</v>
       </c>
@@ -9740,11 +9215,8 @@
       <c r="N203">
         <v>18.5</v>
       </c>
-      <c r="O203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3.3059999999999999E-2</v>
       </c>
@@ -9787,11 +9259,8 @@
       <c r="N204">
         <v>20.6</v>
       </c>
-      <c r="O204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>5.4969999999999998E-2</v>
       </c>
@@ -9834,11 +9303,8 @@
       <c r="N205">
         <v>19</v>
       </c>
-      <c r="O205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>6.1510000000000002E-2</v>
       </c>
@@ -9878,11 +9344,8 @@
       <c r="N206">
         <v>18.7</v>
       </c>
-      <c r="O206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2.4979999999999999E-2</v>
       </c>
@@ -9925,11 +9388,8 @@
       <c r="N207">
         <v>16.5</v>
       </c>
-      <c r="O207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3.1130000000000001E-2</v>
       </c>
@@ -9972,11 +9432,8 @@
       <c r="N208">
         <v>17.5</v>
       </c>
-      <c r="O208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>6.1620000000000001E-2</v>
       </c>
@@ -10019,11 +9476,8 @@
       <c r="N209">
         <v>17.2</v>
       </c>
-      <c r="O209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1.5010000000000001E-2</v>
       </c>
@@ -10066,11 +9520,8 @@
       <c r="N210">
         <v>24.5</v>
       </c>
-      <c r="O210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>7.2440000000000004E-2</v>
       </c>
@@ -10113,11 +9564,8 @@
       <c r="N211">
         <v>18.600000000000001</v>
       </c>
-      <c r="O211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4.301E-2</v>
       </c>
@@ -10160,11 +9608,8 @@
       <c r="N212">
         <v>18.2</v>
       </c>
-      <c r="O212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0.10659</v>
       </c>
@@ -10207,11 +9652,8 @@
       <c r="N213">
         <v>20.6</v>
       </c>
-      <c r="O213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>8.9829600000000003</v>
       </c>
@@ -10254,11 +9696,8 @@
       <c r="N214">
         <v>17.8</v>
       </c>
-      <c r="O214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>3.8496999999999999</v>
       </c>
@@ -10301,11 +9740,8 @@
       <c r="N215">
         <v>21.7</v>
       </c>
-      <c r="O215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>5.2017699999999998</v>
       </c>
@@ -10348,11 +9784,8 @@
       <c r="N216">
         <v>22.7</v>
       </c>
-      <c r="O216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3.83684</v>
       </c>
@@ -10395,11 +9828,8 @@
       <c r="N217">
         <v>19.899999999999999</v>
       </c>
-      <c r="O217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>3.67822</v>
       </c>
@@ -10442,11 +9872,8 @@
       <c r="N218">
         <v>20.8</v>
       </c>
-      <c r="O218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4.2223899999999999</v>
       </c>
@@ -10489,11 +9916,8 @@
       <c r="N219">
         <v>16.8</v>
       </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3.4742799999999998</v>
       </c>
@@ -10533,11 +9957,8 @@
       <c r="N220">
         <v>21.9</v>
       </c>
-      <c r="O220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>3.6969500000000002</v>
       </c>
@@ -10580,11 +10001,8 @@
       <c r="N221">
         <v>21.9</v>
       </c>
-      <c r="O221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4.8982200000000002</v>
       </c>
@@ -10627,11 +10045,8 @@
       <c r="N222">
         <v>50</v>
       </c>
-      <c r="O222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>9.8234899999999996</v>
       </c>
@@ -10674,11 +10089,8 @@
       <c r="N223">
         <v>13.3</v>
       </c>
-      <c r="O223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0</v>
       </c>
@@ -10719,7 +10131,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>9.1870200000000004</v>
       </c>
@@ -10762,11 +10174,8 @@
       <c r="N225">
         <v>11.3</v>
       </c>
-      <c r="O225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>7.9924799999999996</v>
       </c>
@@ -10809,11 +10218,8 @@
       <c r="N226">
         <v>12.3</v>
       </c>
-      <c r="O226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>0</v>
       </c>
@@ -10854,7 +10260,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>8.1517400000000002</v>
       </c>
@@ -10897,11 +10303,8 @@
       <c r="N228">
         <v>11.5</v>
       </c>
-      <c r="O228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>6.9621500000000003</v>
       </c>
@@ -10944,11 +10347,8 @@
       <c r="N229">
         <v>15.1</v>
       </c>
-      <c r="O229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>8.6447599999999998</v>
       </c>
@@ -10991,11 +10391,8 @@
       <c r="N230">
         <v>13.8</v>
       </c>
-      <c r="O230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>8.7167499999999993</v>
       </c>
@@ -11038,11 +10435,8 @@
       <c r="N231">
         <v>13.1</v>
       </c>
-      <c r="O231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>5.8720499999999998</v>
       </c>
@@ -11085,11 +10479,8 @@
       <c r="N232">
         <v>12.5</v>
       </c>
-      <c r="O232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>0</v>
       </c>
@@ -11130,7 +10521,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0</v>
       </c>
@@ -11168,7 +10559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0</v>
       </c>
@@ -11209,7 +10600,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>0</v>
       </c>
@@ -11250,7 +10641,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>7.0225900000000001</v>
       </c>
@@ -11293,11 +10684,8 @@
       <c r="N237">
         <v>14.2</v>
       </c>
-      <c r="O237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>7.0504199999999999</v>
       </c>
@@ -11340,11 +10728,8 @@
       <c r="N238">
         <v>13.4</v>
       </c>
-      <c r="O238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>8.7921200000000006</v>
       </c>
@@ -11387,11 +10772,8 @@
       <c r="N239">
         <v>11.7</v>
       </c>
-      <c r="O239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>8.4921299999999995</v>
       </c>
@@ -11434,11 +10816,8 @@
       <c r="N240">
         <v>14.5</v>
       </c>
-      <c r="O240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>6.4440499999999998</v>
       </c>
@@ -11481,11 +10860,8 @@
       <c r="N241">
         <v>16.100000000000001</v>
       </c>
-      <c r="O241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>5.5810700000000004</v>
       </c>
@@ -11528,11 +10904,8 @@
       <c r="N242">
         <v>14.3</v>
       </c>
-      <c r="O242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>9.3906299999999998</v>
       </c>
@@ -11575,11 +10948,8 @@
       <c r="N243">
         <v>12.8</v>
       </c>
-      <c r="O243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>9.7241800000000005</v>
       </c>
@@ -11622,11 +10992,8 @@
       <c r="N244">
         <v>17.100000000000001</v>
       </c>
-      <c r="O244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>5.6663699999999997</v>
       </c>
@@ -11669,11 +11036,8 @@
       <c r="N245">
         <v>18.399999999999999</v>
       </c>
-      <c r="O245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>9.9665400000000002</v>
       </c>
@@ -11716,11 +11080,8 @@
       <c r="N246">
         <v>15.4</v>
       </c>
-      <c r="O246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>6.2880700000000003</v>
       </c>
@@ -11763,11 +11124,8 @@
       <c r="N247">
         <v>14.9</v>
       </c>
-      <c r="O247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>9.9248499999999993</v>
       </c>
@@ -11810,11 +11168,8 @@
       <c r="N248">
         <v>12.6</v>
       </c>
-      <c r="O248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>7.5260100000000003</v>
       </c>
@@ -11857,11 +11212,8 @@
       <c r="N249">
         <v>13</v>
       </c>
-      <c r="O249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>6.7177199999999999</v>
       </c>
@@ -11904,11 +11256,8 @@
       <c r="N250">
         <v>13.4</v>
       </c>
-      <c r="O250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>5.4411399999999999</v>
       </c>
@@ -11951,11 +11300,8 @@
       <c r="N251">
         <v>15.2</v>
       </c>
-      <c r="O251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>5.0901699999999996</v>
       </c>
@@ -11998,11 +11344,8 @@
       <c r="N252">
         <v>16.100000000000001</v>
       </c>
-      <c r="O252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>8.2480899999999995</v>
       </c>
@@ -12045,11 +11388,8 @@
       <c r="N253">
         <v>17.8</v>
       </c>
-      <c r="O253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>9.5136299999999991</v>
       </c>
@@ -12092,11 +11432,8 @@
       <c r="N254">
         <v>14.9</v>
       </c>
-      <c r="O254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>4.75237</v>
       </c>
@@ -12139,11 +11476,8 @@
       <c r="N255">
         <v>14.1</v>
       </c>
-      <c r="O255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>4.6688299999999998</v>
       </c>
@@ -12186,11 +11520,8 @@
       <c r="N256">
         <v>12.7</v>
       </c>
-      <c r="O256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>8.2005800000000004</v>
       </c>
@@ -12233,11 +11564,8 @@
       <c r="N257">
         <v>13.5</v>
       </c>
-      <c r="O257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>7.75223</v>
       </c>
@@ -12277,11 +11605,8 @@
       <c r="N258">
         <v>14.9</v>
       </c>
-      <c r="O258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>6.8011699999999999</v>
       </c>
@@ -12324,11 +11649,8 @@
       <c r="N259">
         <v>20</v>
       </c>
-      <c r="O259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>4.8121299999999998</v>
       </c>
@@ -12371,11 +11693,8 @@
       <c r="N260">
         <v>16.399999999999999</v>
       </c>
-      <c r="O260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>3.6931099999999999</v>
       </c>
@@ -12418,11 +11737,8 @@
       <c r="N261">
         <v>17.7</v>
       </c>
-      <c r="O261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>6.6549199999999997</v>
       </c>
@@ -12465,11 +11781,8 @@
       <c r="N262">
         <v>19.5</v>
       </c>
-      <c r="O262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>5.8211500000000003</v>
       </c>
@@ -12512,11 +11825,8 @@
       <c r="N263">
         <v>20.2</v>
       </c>
-      <c r="O263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>7.8393199999999998</v>
       </c>
@@ -12559,11 +11869,8 @@
       <c r="N264">
         <v>21.4</v>
       </c>
-      <c r="O264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3.1636000000000002</v>
       </c>
@@ -12606,11 +11913,8 @@
       <c r="N265">
         <v>19.899999999999999</v>
       </c>
-      <c r="O265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3.7749799999999998</v>
       </c>
@@ -12653,11 +11957,8 @@
       <c r="N266">
         <v>19</v>
       </c>
-      <c r="O266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>4.4222799999999998</v>
       </c>
@@ -12700,11 +12001,8 @@
       <c r="N267">
         <v>19.100000000000001</v>
       </c>
-      <c r="O267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>0</v>
       </c>
@@ -12745,7 +12043,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>4.3487900000000002</v>
       </c>
@@ -12788,11 +12086,8 @@
       <c r="N269">
         <v>19.899999999999999</v>
       </c>
-      <c r="O269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>4.0384099999999998</v>
       </c>
@@ -12835,11 +12130,8 @@
       <c r="N270">
         <v>19.600000000000001</v>
       </c>
-      <c r="O270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>8.05579</v>
       </c>
@@ -12882,11 +12174,8 @@
       <c r="N271">
         <v>13.8</v>
       </c>
-      <c r="O271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>6.3931199999999997</v>
       </c>
@@ -12929,11 +12218,8 @@
       <c r="N272">
         <v>13.3</v>
       </c>
-      <c r="O272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>4.87141</v>
       </c>
@@ -12976,11 +12262,8 @@
       <c r="N273">
         <v>16.7</v>
       </c>
-      <c r="O273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>0</v>
       </c>
@@ -13018,7 +12301,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2.8183799999999999</v>
       </c>
@@ -13058,11 +12341,8 @@
       <c r="N275">
         <v>21.8</v>
       </c>
-      <c r="O275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2.3785699999999999</v>
       </c>
@@ -13102,11 +12382,8 @@
       <c r="N276">
         <v>20.6</v>
       </c>
-      <c r="O276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>3.67367</v>
       </c>
@@ -13146,11 +12423,8 @@
       <c r="N277">
         <v>21.2</v>
       </c>
-      <c r="O277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>5.6917499999999999</v>
       </c>
@@ -13190,11 +12464,8 @@
       <c r="N278">
         <v>19.100000000000001</v>
       </c>
-      <c r="O278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>4.8356700000000004</v>
       </c>
@@ -13234,11 +12505,8 @@
       <c r="N279">
         <v>20.6</v>
       </c>
-      <c r="O279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>0.15085999999999999</v>
       </c>
@@ -13278,11 +12546,8 @@
       <c r="N280">
         <v>15.2</v>
       </c>
-      <c r="O280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>0.10574</v>
       </c>
@@ -13322,11 +12587,8 @@
       <c r="N281">
         <v>13.6</v>
       </c>
-      <c r="O281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>0.11132</v>
       </c>
@@ -13369,11 +12631,8 @@
       <c r="N282">
         <v>20.100000000000001</v>
       </c>
-      <c r="O282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>0.17330999999999999</v>
       </c>
@@ -13416,11 +12675,8 @@
       <c r="N283">
         <v>21.8</v>
       </c>
-      <c r="O283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>0.28960000000000002</v>
       </c>
@@ -13463,11 +12719,8 @@
       <c r="N284">
         <v>19.7</v>
       </c>
-      <c r="O284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>0.26838000000000001</v>
       </c>
@@ -13510,11 +12763,8 @@
       <c r="N285">
         <v>18.3</v>
       </c>
-      <c r="O285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>0.17782999999999999</v>
       </c>
@@ -13554,11 +12804,8 @@
       <c r="N286">
         <v>17.5</v>
       </c>
-      <c r="O286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>0.22438</v>
       </c>
@@ -13601,11 +12848,8 @@
       <c r="N287">
         <v>16.8</v>
       </c>
-      <c r="O287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>6.2630000000000005E-2</v>
       </c>
@@ -13648,11 +12892,8 @@
       <c r="N288">
         <v>22.4</v>
       </c>
-      <c r="O288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>0.10959000000000001</v>
       </c>
@@ -13695,11 +12936,8 @@
       <c r="N289">
         <v>22</v>
       </c>
-      <c r="O289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>6.3200000000000001E-3</v>
       </c>
@@ -13742,11 +12980,8 @@
       <c r="N290">
         <v>24</v>
       </c>
-      <c r="O290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2.9850000000000002E-2</v>
       </c>
@@ -13789,11 +13024,8 @@
       <c r="N291">
         <v>28.7</v>
       </c>
-      <c r="O291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>8.8289999999999993E-2</v>
       </c>
@@ -13836,11 +13068,8 @@
       <c r="N292">
         <v>22.9</v>
       </c>
-      <c r="O292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>0.14455000000000001</v>
       </c>
@@ -13883,11 +13112,8 @@
       <c r="N293">
         <v>27.1</v>
       </c>
-      <c r="O293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1.05393</v>
       </c>
@@ -13930,11 +13156,8 @@
       <c r="N294">
         <v>23.1</v>
       </c>
-      <c r="O294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>0.80271000000000003</v>
       </c>
@@ -13977,11 +13200,8 @@
       <c r="N295">
         <v>20.2</v>
       </c>
-      <c r="O295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2.7629999999999998E-2</v>
       </c>
@@ -14024,11 +13244,8 @@
       <c r="N296">
         <v>30.8</v>
       </c>
-      <c r="O296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>0.12744</v>
       </c>
@@ -14071,11 +13288,8 @@
       <c r="N297">
         <v>26.6</v>
       </c>
-      <c r="O297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>0.14149999999999999</v>
       </c>
@@ -14118,11 +13332,8 @@
       <c r="N298">
         <v>25.3</v>
       </c>
-      <c r="O298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>0.15936</v>
       </c>
@@ -14165,11 +13376,8 @@
       <c r="N299">
         <v>24.7</v>
       </c>
-      <c r="O299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>5.3600000000000002E-2</v>
       </c>
@@ -14212,11 +13420,8 @@
       <c r="N300">
         <v>25</v>
       </c>
-      <c r="O300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>4.981E-2</v>
       </c>
@@ -14259,11 +13464,8 @@
       <c r="N301">
         <v>23.4</v>
       </c>
-      <c r="O301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2.0549999999999999E-2</v>
       </c>
@@ -14306,11 +13508,8 @@
       <c r="N302">
         <v>24.7</v>
       </c>
-      <c r="O302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1.4319999999999999E-2</v>
       </c>
@@ -14353,11 +13552,8 @@
       <c r="N303">
         <v>31.6</v>
       </c>
-      <c r="O303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>0.11027000000000001</v>
       </c>
@@ -14400,11 +13596,8 @@
       <c r="N304">
         <v>22.2</v>
       </c>
-      <c r="O304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>0.1265</v>
       </c>
@@ -14447,11 +13640,8 @@
       <c r="N305">
         <v>25</v>
       </c>
-      <c r="O305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>3.5839999999999997E-2</v>
       </c>
@@ -14494,11 +13684,8 @@
       <c r="N306">
         <v>23.5</v>
       </c>
-      <c r="O306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>5.7889999999999997E-2</v>
       </c>
@@ -14541,11 +13728,8 @@
       <c r="N307">
         <v>22</v>
       </c>
-      <c r="O307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0.13553999999999999</v>
       </c>
@@ -14588,11 +13772,8 @@
       <c r="N308">
         <v>17.399999999999999</v>
       </c>
-      <c r="O308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>8.8260000000000005E-2</v>
       </c>
@@ -14635,11 +13816,8 @@
       <c r="N309">
         <v>24.2</v>
       </c>
-      <c r="O309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>9.1639999999999999E-2</v>
       </c>
@@ -14682,11 +13860,8 @@
       <c r="N310">
         <v>22.8</v>
       </c>
-      <c r="O310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>0.19539000000000001</v>
       </c>
@@ -14729,11 +13904,8 @@
       <c r="N311">
         <v>23.4</v>
       </c>
-      <c r="O311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>7.8960000000000002E-2</v>
       </c>
@@ -14776,11 +13948,8 @@
       <c r="N312">
         <v>24.1</v>
       </c>
-      <c r="O312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>5.6460000000000003E-2</v>
       </c>
@@ -14820,11 +13989,8 @@
       <c r="N313">
         <v>21.2</v>
       </c>
-      <c r="O313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>4.113E-2</v>
       </c>
@@ -14864,11 +14030,8 @@
       <c r="N314">
         <v>28</v>
       </c>
-      <c r="O314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>4.462E-2</v>
       </c>
@@ -14911,11 +14074,8 @@
       <c r="N315">
         <v>23.9</v>
       </c>
-      <c r="O315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3.6589999999999998E-2</v>
       </c>
@@ -14958,11 +14118,8 @@
       <c r="N316">
         <v>24.8</v>
       </c>
-      <c r="O316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>3.551E-2</v>
       </c>
@@ -15005,11 +14162,8 @@
       <c r="N317">
         <v>22.9</v>
       </c>
-      <c r="O317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>5.0590000000000003E-2</v>
       </c>
@@ -15052,11 +14206,8 @@
       <c r="N318">
         <v>23.9</v>
       </c>
-      <c r="O318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>5.7349999999999998E-2</v>
       </c>
@@ -15099,11 +14250,8 @@
       <c r="N319">
         <v>26.6</v>
       </c>
-      <c r="O319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>5.1880000000000003E-2</v>
       </c>
@@ -15146,11 +14294,8 @@
       <c r="N320">
         <v>22.5</v>
       </c>
-      <c r="O320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>7.1510000000000004E-2</v>
       </c>
@@ -15193,11 +14338,8 @@
       <c r="N321">
         <v>22.2</v>
       </c>
-      <c r="O321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>5.6599999999999998E-2</v>
       </c>
@@ -15240,11 +14382,8 @@
       <c r="N322">
         <v>23.6</v>
       </c>
-      <c r="O322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>5.3019999999999998E-2</v>
       </c>
@@ -15287,11 +14426,8 @@
       <c r="N323">
         <v>28.7</v>
       </c>
-      <c r="O323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>4.684E-2</v>
       </c>
@@ -15334,11 +14470,8 @@
       <c r="N324">
         <v>22.6</v>
       </c>
-      <c r="O324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>3.9320000000000001E-2</v>
       </c>
@@ -15381,11 +14514,8 @@
       <c r="N325">
         <v>22</v>
       </c>
-      <c r="O325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>4.2029999999999998E-2</v>
       </c>
@@ -15428,11 +14558,8 @@
       <c r="N326">
         <v>22.9</v>
       </c>
-      <c r="O326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2.8750000000000001E-2</v>
       </c>
@@ -15472,11 +14599,8 @@
       <c r="N327">
         <v>25</v>
       </c>
-      <c r="O327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>0.12204</v>
       </c>
@@ -15519,11 +14643,8 @@
       <c r="N328">
         <v>28.4</v>
       </c>
-      <c r="O328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>0.17119999999999999</v>
       </c>
@@ -15566,11 +14687,8 @@
       <c r="N329">
         <v>19.5</v>
       </c>
-      <c r="O329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>0.10084</v>
       </c>
@@ -15613,11 +14731,8 @@
       <c r="N330">
         <v>22.8</v>
       </c>
-      <c r="O330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>6.8989999999999996E-2</v>
       </c>
@@ -15660,11 +14775,8 @@
       <c r="N331">
         <v>22</v>
       </c>
-      <c r="O331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>0.59004999999999996</v>
       </c>
@@ -15707,11 +14819,8 @@
       <c r="N332">
         <v>23</v>
       </c>
-      <c r="O332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1.42502</v>
       </c>
@@ -15754,11 +14863,8 @@
       <c r="N333">
         <v>23.3</v>
       </c>
-      <c r="O333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1.27346</v>
       </c>
@@ -15801,11 +14907,8 @@
       <c r="N334">
         <v>27</v>
       </c>
-      <c r="O334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2.2423600000000001</v>
       </c>
@@ -15848,11 +14951,8 @@
       <c r="N335">
         <v>22.7</v>
       </c>
-      <c r="O335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2.9239999999999999</v>
       </c>
@@ -15892,11 +14992,8 @@
       <c r="N336">
         <v>25</v>
       </c>
-      <c r="O336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1.8002800000000001</v>
       </c>
@@ -15939,11 +15036,8 @@
       <c r="N337">
         <v>23.8</v>
       </c>
-      <c r="O337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2.4495300000000002</v>
       </c>
@@ -15986,11 +15080,8 @@
       <c r="N338">
         <v>22.3</v>
       </c>
-      <c r="O338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>0.13914000000000001</v>
       </c>
@@ -16033,11 +15124,8 @@
       <c r="N339">
         <v>23.1</v>
       </c>
-      <c r="O339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>9.178E-2</v>
       </c>
@@ -16080,11 +15168,8 @@
       <c r="N340">
         <v>23.6</v>
       </c>
-      <c r="O340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>8.4470000000000003E-2</v>
       </c>
@@ -16127,11 +15212,8 @@
       <c r="N341">
         <v>22.6</v>
       </c>
-      <c r="O341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>6.6640000000000005E-2</v>
       </c>
@@ -16174,11 +15256,8 @@
       <c r="N342">
         <v>29.4</v>
       </c>
-      <c r="O342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>7.0220000000000005E-2</v>
       </c>
@@ -16221,11 +15300,8 @@
       <c r="N343">
         <v>23.2</v>
       </c>
-      <c r="O343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>5.425E-2</v>
       </c>
@@ -16268,11 +15344,8 @@
       <c r="N344">
         <v>24.6</v>
       </c>
-      <c r="O344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>6.6420000000000007E-2</v>
       </c>
@@ -16312,11 +15385,8 @@
       <c r="N345">
         <v>29.9</v>
       </c>
-      <c r="O345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>0.10008</v>
       </c>
@@ -16359,11 +15429,8 @@
       <c r="N346">
         <v>32.5</v>
       </c>
-      <c r="O346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>8.3080000000000001E-2</v>
       </c>
@@ -16406,11 +15473,8 @@
       <c r="N347">
         <v>26.4</v>
       </c>
-      <c r="O347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>6.0470000000000003E-2</v>
       </c>
@@ -16453,11 +15517,8 @@
       <c r="N348">
         <v>29.6</v>
       </c>
-      <c r="O348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>7.8750000000000001E-2</v>
       </c>
@@ -16500,11 +15561,8 @@
       <c r="N349">
         <v>32</v>
       </c>
-      <c r="O349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>6.9110000000000005E-2</v>
       </c>
@@ -16547,11 +15605,8 @@
       <c r="N350">
         <v>30.5</v>
       </c>
-      <c r="O350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2.1870000000000001E-2</v>
       </c>
@@ -16594,11 +15649,8 @@
       <c r="N351">
         <v>31.1</v>
       </c>
-      <c r="O351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1.439E-2</v>
       </c>
@@ -16638,11 +15690,8 @@
       <c r="N352">
         <v>29.1</v>
       </c>
-      <c r="O352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>4.666E-2</v>
       </c>
@@ -16685,11 +15734,8 @@
       <c r="N353">
         <v>30.3</v>
       </c>
-      <c r="O353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>3.7679999999999998E-2</v>
       </c>
@@ -16732,11 +15778,8 @@
       <c r="N354">
         <v>34.6</v>
       </c>
-      <c r="O354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>0.21718999999999999</v>
       </c>
@@ -16779,11 +15822,8 @@
       <c r="N355">
         <v>22.4</v>
       </c>
-      <c r="O355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>0.14052000000000001</v>
       </c>
@@ -16826,11 +15866,8 @@
       <c r="N356">
         <v>28.1</v>
       </c>
-      <c r="O356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>0.28954999999999997</v>
       </c>
@@ -16873,11 +15910,8 @@
       <c r="N357">
         <v>23.7</v>
       </c>
-      <c r="O357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>0.19802</v>
       </c>
@@ -16920,11 +15954,8 @@
       <c r="N358">
         <v>25</v>
       </c>
-      <c r="O358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>4.5600000000000002E-2</v>
       </c>
@@ -16967,11 +15998,8 @@
       <c r="N359">
         <v>23.3</v>
       </c>
-      <c r="O359">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>7.0129999999999998E-2</v>
       </c>
@@ -17014,11 +16042,8 @@
       <c r="N360">
         <v>28.7</v>
       </c>
-      <c r="O360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>0.11425</v>
       </c>
@@ -17061,11 +16086,8 @@
       <c r="N361">
         <v>23</v>
       </c>
-      <c r="O361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>0.35809000000000002</v>
       </c>
@@ -17105,11 +16127,8 @@
       <c r="N362">
         <v>26.7</v>
       </c>
-      <c r="O362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>0.62356</v>
       </c>
@@ -17149,11 +16168,8 @@
       <c r="N363">
         <v>27.5</v>
       </c>
-      <c r="O363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>0.61470000000000002</v>
       </c>
@@ -17196,11 +16212,8 @@
       <c r="N364">
         <v>30.1</v>
       </c>
-      <c r="O364">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>0.41238000000000002</v>
       </c>
@@ -17243,11 +16256,8 @@
       <c r="N365">
         <v>31.6</v>
       </c>
-      <c r="O365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>0.44178000000000001</v>
       </c>
@@ -17290,11 +16300,8 @@
       <c r="N366">
         <v>31.5</v>
       </c>
-      <c r="O366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>0.53700000000000003</v>
       </c>
@@ -17337,11 +16344,8 @@
       <c r="N367">
         <v>24.3</v>
       </c>
-      <c r="O367">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>0.46295999999999998</v>
       </c>
@@ -17384,11 +16388,8 @@
       <c r="N368">
         <v>31.7</v>
       </c>
-      <c r="O368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>0.44790999999999997</v>
       </c>
@@ -17428,11 +16429,8 @@
       <c r="N369">
         <v>29</v>
       </c>
-      <c r="O369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>0.33045000000000002</v>
       </c>
@@ -17472,11 +16470,8 @@
       <c r="N370">
         <v>24</v>
       </c>
-      <c r="O370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>0.52058000000000004</v>
       </c>
@@ -17519,11 +16514,8 @@
       <c r="N371">
         <v>25.1</v>
       </c>
-      <c r="O371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>0.51183000000000001</v>
       </c>
@@ -17566,11 +16558,8 @@
       <c r="N372">
         <v>31.5</v>
       </c>
-      <c r="O372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>9.2520000000000005E-2</v>
       </c>
@@ -17613,11 +16602,8 @@
       <c r="N373">
         <v>23.3</v>
       </c>
-      <c r="O373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>0.11329</v>
       </c>
@@ -17660,11 +16646,8 @@
       <c r="N374">
         <v>22</v>
       </c>
-      <c r="O374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>0.10290000000000001</v>
       </c>
@@ -17707,11 +16690,8 @@
       <c r="N375">
         <v>22.2</v>
       </c>
-      <c r="O375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>0.12756999999999999</v>
       </c>
@@ -17754,11 +16734,8 @@
       <c r="N376">
         <v>23.7</v>
       </c>
-      <c r="O376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>0.33983000000000002</v>
       </c>
@@ -17801,11 +16778,8 @@
       <c r="N377">
         <v>24.3</v>
       </c>
-      <c r="O377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>0.19073000000000001</v>
       </c>
@@ -17848,11 +16822,8 @@
       <c r="N378">
         <v>26.2</v>
       </c>
-      <c r="O378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>0.14030000000000001</v>
       </c>
@@ -17895,11 +16866,8 @@
       <c r="N379">
         <v>24.4</v>
       </c>
-      <c r="O379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>0.21409</v>
       </c>
@@ -17942,11 +16910,8 @@
       <c r="N380">
         <v>24.8</v>
       </c>
-      <c r="O380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>8.2210000000000005E-2</v>
       </c>
@@ -17989,11 +16954,8 @@
       <c r="N381">
         <v>29.6</v>
       </c>
-      <c r="O381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>0.65664999999999996</v>
       </c>
@@ -18036,11 +16998,8 @@
       <c r="N382">
         <v>30.1</v>
       </c>
-      <c r="O382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>0.82525999999999999</v>
       </c>
@@ -18083,11 +17042,8 @@
       <c r="N383">
         <v>31</v>
       </c>
-      <c r="O383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>0.76161999999999996</v>
       </c>
@@ -18130,11 +17086,8 @@
       <c r="N384">
         <v>22.8</v>
       </c>
-      <c r="O384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>0.78569999999999995</v>
       </c>
@@ -18177,11 +17130,8 @@
       <c r="N385">
         <v>30.7</v>
       </c>
-      <c r="O385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>0.16211</v>
       </c>
@@ -18224,11 +17174,8 @@
       <c r="N386">
         <v>25.2</v>
       </c>
-      <c r="O386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>0.11459999999999999</v>
       </c>
@@ -18271,11 +17218,8 @@
       <c r="N387">
         <v>24.4</v>
       </c>
-      <c r="O387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>5.6439999999999997E-2</v>
       </c>
@@ -18318,11 +17262,8 @@
       <c r="N388">
         <v>32.4</v>
       </c>
-      <c r="O388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>9.604E-2</v>
       </c>
@@ -18365,11 +17306,8 @@
       <c r="N389">
         <v>32</v>
       </c>
-      <c r="O389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>9.0600000000000003E-3</v>
       </c>
@@ -18409,11 +17347,8 @@
       <c r="N390">
         <v>32.200000000000003</v>
       </c>
-      <c r="O390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1.0959999999999999E-2</v>
       </c>
@@ -18456,11 +17391,8 @@
       <c r="N391">
         <v>22</v>
       </c>
-      <c r="O391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>3.8710000000000001E-2</v>
       </c>
@@ -18503,11 +17435,8 @@
       <c r="N392">
         <v>23.2</v>
       </c>
-      <c r="O392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>4.2970000000000001E-2</v>
       </c>
@@ -18550,11 +17479,8 @@
       <c r="N393">
         <v>24.8</v>
       </c>
-      <c r="O393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>3.5020000000000003E-2</v>
       </c>
@@ -18597,11 +17523,8 @@
       <c r="N394">
         <v>28.5</v>
       </c>
-      <c r="O394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>3.6150000000000002E-2</v>
       </c>
@@ -18644,11 +17567,8 @@
       <c r="N395">
         <v>27.9</v>
       </c>
-      <c r="O395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>8.2650000000000001E-2</v>
       </c>
@@ -18691,11 +17611,8 @@
       <c r="N396">
         <v>23.9</v>
       </c>
-      <c r="O396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>0.12931999999999999</v>
       </c>
@@ -18738,11 +17655,8 @@
       <c r="N397">
         <v>28.6</v>
       </c>
-      <c r="O397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>5.3719999999999997E-2</v>
       </c>
@@ -18785,11 +17699,8 @@
       <c r="N398">
         <v>27.1</v>
       </c>
-      <c r="O398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>0.79040999999999995</v>
       </c>
@@ -18832,11 +17743,8 @@
       <c r="N399">
         <v>22.1</v>
       </c>
-      <c r="O399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>0.36919999999999997</v>
       </c>
@@ -18879,11 +17787,8 @@
       <c r="N400">
         <v>23.8</v>
       </c>
-      <c r="O400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>0.1676</v>
       </c>
@@ -18926,11 +17831,8 @@
       <c r="N401">
         <v>23.8</v>
       </c>
-      <c r="O401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>0.18159</v>
       </c>
@@ -18973,11 +17875,8 @@
       <c r="N402">
         <v>23.1</v>
       </c>
-      <c r="O402">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>0.34109</v>
       </c>
@@ -19020,11 +17919,8 @@
       <c r="N403">
         <v>25</v>
       </c>
-      <c r="O403">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>0.19186</v>
       </c>
@@ -19064,11 +17960,8 @@
       <c r="N404">
         <v>24.6</v>
       </c>
-      <c r="O404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>0.30347000000000002</v>
       </c>
@@ -19111,11 +18004,8 @@
       <c r="N405">
         <v>23</v>
       </c>
-      <c r="O405">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>0.24102999999999999</v>
       </c>
@@ -19158,11 +18048,8 @@
       <c r="N406">
         <v>22.2</v>
       </c>
-      <c r="O406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>6.7239999999999994E-2</v>
       </c>
@@ -19205,11 +18092,8 @@
       <c r="N407">
         <v>22.6</v>
       </c>
-      <c r="O407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>5.083E-2</v>
       </c>
@@ -19252,11 +18136,8 @@
       <c r="N408">
         <v>22.2</v>
       </c>
-      <c r="O408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1.3010000000000001E-2</v>
       </c>
@@ -19299,11 +18180,8 @@
       <c r="N409">
         <v>32.700000000000003</v>
       </c>
-      <c r="O409">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2.5430000000000001E-2</v>
       </c>
@@ -19346,11 +18224,8 @@
       <c r="N410">
         <v>23.9</v>
       </c>
-      <c r="O410">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>3.049E-2</v>
       </c>
@@ -19393,11 +18268,8 @@
       <c r="N411">
         <v>31.2</v>
       </c>
-      <c r="O411">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1.8700000000000001E-2</v>
       </c>
@@ -19440,11 +18312,8 @@
       <c r="N412">
         <v>23.1</v>
       </c>
-      <c r="O412">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2.8989999999999998E-2</v>
       </c>
@@ -19487,11 +18356,8 @@
       <c r="N413">
         <v>26.6</v>
       </c>
-      <c r="O413">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>6.2109999999999999E-2</v>
       </c>
@@ -19534,11 +18400,8 @@
       <c r="N414">
         <v>22.9</v>
       </c>
-      <c r="O414">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>7.9500000000000001E-2</v>
       </c>
@@ -19581,11 +18444,8 @@
       <c r="N415">
         <v>24.1</v>
       </c>
-      <c r="O415">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1.7090000000000001E-2</v>
       </c>
@@ -19628,11 +18488,8 @@
       <c r="N416">
         <v>30.1</v>
       </c>
-      <c r="O416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>4.2613099999999999</v>
       </c>
@@ -19675,11 +18532,8 @@
       <c r="N417">
         <v>22.6</v>
       </c>
-      <c r="O417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>4.5419200000000002</v>
       </c>
@@ -19719,11 +18573,8 @@
       <c r="N418">
         <v>25</v>
       </c>
-      <c r="O418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>4.5558699999999996</v>
       </c>
@@ -19766,11 +18617,8 @@
       <c r="N419">
         <v>27.5</v>
       </c>
-      <c r="O419">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>5.29305</v>
       </c>
@@ -19813,11 +18661,8 @@
       <c r="N420">
         <v>23.2</v>
       </c>
-      <c r="O420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>9.9165500000000009</v>
       </c>
@@ -19860,11 +18705,8 @@
       <c r="N421">
         <v>6.3</v>
       </c>
-      <c r="O421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>0</v>
       </c>
@@ -19905,7 +18747,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>9.5957100000000004</v>
       </c>
@@ -19948,11 +18790,8 @@
       <c r="N423">
         <v>12.1</v>
       </c>
-      <c r="O423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>0</v>
       </c>
@@ -19990,7 +18829,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>7.4038899999999996</v>
       </c>
@@ -20033,11 +18872,8 @@
       <c r="N425">
         <v>17.2</v>
       </c>
-      <c r="O425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>7.3671100000000003</v>
       </c>
@@ -20077,11 +18913,8 @@
       <c r="N426">
         <v>11</v>
       </c>
-      <c r="O426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>0</v>
       </c>
@@ -20122,7 +18955,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>9.3290900000000008</v>
       </c>
@@ -20165,11 +18998,8 @@
       <c r="N428">
         <v>14.1</v>
       </c>
-      <c r="O428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>3.5686800000000001</v>
       </c>
@@ -20212,11 +19042,8 @@
       <c r="N429">
         <v>23.2</v>
       </c>
-      <c r="O429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>4.64689</v>
       </c>
@@ -20259,11 +19086,8 @@
       <c r="N430">
         <v>29.8</v>
       </c>
-      <c r="O430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>5.8240100000000004</v>
       </c>
@@ -20306,11 +19130,8 @@
       <c r="N431">
         <v>23</v>
       </c>
-      <c r="O431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>5.7081799999999996</v>
       </c>
@@ -20353,11 +19174,8 @@
       <c r="N432">
         <v>23.7</v>
       </c>
-      <c r="O432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>5.73116</v>
       </c>
@@ -20400,11 +19218,8 @@
       <c r="N433">
         <v>25</v>
       </c>
-      <c r="O433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>0.27956999999999999</v>
       </c>
@@ -20447,11 +19262,8 @@
       <c r="N434">
         <v>24.5</v>
       </c>
-      <c r="O434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>0.17899000000000001</v>
       </c>
@@ -20494,11 +19306,8 @@
       <c r="N435">
         <v>23.1</v>
       </c>
-      <c r="O435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>4.5269999999999998E-2</v>
       </c>
@@ -20541,11 +19350,8 @@
       <c r="N436">
         <v>20.6</v>
       </c>
-      <c r="O436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>6.0760000000000002E-2</v>
       </c>
@@ -20588,11 +19394,8 @@
       <c r="N437">
         <v>23.9</v>
       </c>
-      <c r="O437">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2.7289999999999998E-2</v>
       </c>
@@ -20635,11 +19438,8 @@
       <c r="N438">
         <v>34.700000000000003</v>
       </c>
-      <c r="O438">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>3.2370000000000003E-2</v>
       </c>
@@ -20679,11 +19479,8 @@
       <c r="N439">
         <v>33.4</v>
       </c>
-      <c r="O439">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>6.905E-2</v>
       </c>
@@ -20726,11 +19523,8 @@
       <c r="N440">
         <v>36.200000000000003</v>
       </c>
-      <c r="O440">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>0.17505000000000001</v>
       </c>
@@ -20773,11 +19567,8 @@
       <c r="N441">
         <v>24.7</v>
       </c>
-      <c r="O441">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>3.3590000000000002E-2</v>
       </c>
@@ -20817,11 +19608,8 @@
       <c r="N442">
         <v>34.9</v>
       </c>
-      <c r="O442">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>0.25386999999999998</v>
       </c>
@@ -20864,11 +19652,8 @@
       <c r="N443">
         <v>14.4</v>
       </c>
-      <c r="O443">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1.311E-2</v>
       </c>
@@ -20911,11 +19696,8 @@
       <c r="N444">
         <v>35.4</v>
       </c>
-      <c r="O444">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>0.15445</v>
       </c>
@@ -20958,11 +19740,8 @@
       <c r="N445">
         <v>23.3</v>
       </c>
-      <c r="O445">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1.951E-2</v>
       </c>
@@ -21005,11 +19784,8 @@
       <c r="N446">
         <v>33</v>
       </c>
-      <c r="O446">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>0.12083000000000001</v>
       </c>
@@ -21052,11 +19828,8 @@
       <c r="N447">
         <v>38.700000000000003</v>
       </c>
-      <c r="O447">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1.2235799999999999</v>
       </c>
@@ -21099,11 +19872,8 @@
       <c r="N448">
         <v>41.3</v>
       </c>
-      <c r="O448">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>5.7799999999999997E-2</v>
       </c>
@@ -21146,11 +19916,8 @@
       <c r="N449">
         <v>37.200000000000003</v>
       </c>
-      <c r="O449">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>6.5879999999999994E-2</v>
       </c>
@@ -21190,11 +19957,8 @@
       <c r="N450">
         <v>39.799999999999997</v>
       </c>
-      <c r="O450">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>6.8879999999999997E-2</v>
       </c>
@@ -21237,11 +20001,8 @@
       <c r="N451">
         <v>36.200000000000003</v>
       </c>
-      <c r="O451">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>9.103E-2</v>
       </c>
@@ -21284,11 +20045,8 @@
       <c r="N452">
         <v>37.9</v>
       </c>
-      <c r="O452">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>8.3699999999999997E-2</v>
       </c>
@@ -21331,11 +20089,8 @@
       <c r="N453">
         <v>34.9</v>
       </c>
-      <c r="O453">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>9.0679999999999997E-2</v>
       </c>
@@ -21378,11 +20133,8 @@
       <c r="N454">
         <v>37</v>
       </c>
-      <c r="O454">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>8.6639999999999995E-2</v>
       </c>
@@ -21425,11 +20177,8 @@
       <c r="N455">
         <v>36.4</v>
       </c>
-      <c r="O455">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>4.011E-2</v>
       </c>
@@ -21472,11 +20221,8 @@
       <c r="N456">
         <v>33.299999999999997</v>
       </c>
-      <c r="O456">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>0.38213999999999998</v>
       </c>
@@ -21519,11 +20265,8 @@
       <c r="N457">
         <v>37.6</v>
       </c>
-      <c r="O457">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>0.57528999999999997</v>
       </c>
@@ -21566,11 +20309,8 @@
       <c r="N458">
         <v>41.7</v>
       </c>
-      <c r="O458">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>0.36893999999999999</v>
       </c>
@@ -21613,11 +20353,8 @@
       <c r="N459">
         <v>42.8</v>
       </c>
-      <c r="O459">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>0.54010999999999998</v>
       </c>
@@ -21660,11 +20397,8 @@
       <c r="N460">
         <v>33.799999999999997</v>
       </c>
-      <c r="O460">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>0.53412000000000004</v>
       </c>
@@ -21707,11 +20441,8 @@
       <c r="N461">
         <v>43.1</v>
       </c>
-      <c r="O461">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>0.55006999999999995</v>
       </c>
@@ -21751,11 +20482,8 @@
       <c r="N462">
         <v>36.5</v>
       </c>
-      <c r="O462">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>0.22187999999999999</v>
       </c>
@@ -21798,11 +20526,8 @@
       <c r="N463">
         <v>35.200000000000003</v>
       </c>
-      <c r="O463">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>0.10469000000000001</v>
       </c>
@@ -21845,11 +20570,8 @@
       <c r="N464">
         <v>33.200000000000003</v>
       </c>
-      <c r="O464">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>6.1269999999999998E-2</v>
       </c>
@@ -21892,11 +20614,8 @@
       <c r="N465">
         <v>33.1</v>
       </c>
-      <c r="O465">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>0.21038000000000001</v>
       </c>
@@ -21936,11 +20655,8 @@
       <c r="N466">
         <v>35.1</v>
       </c>
-      <c r="O466">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>3.705E-2</v>
       </c>
@@ -21980,11 +20696,8 @@
       <c r="N467">
         <v>35.4</v>
       </c>
-      <c r="O467">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>7.886E-2</v>
       </c>
@@ -22027,11 +20740,8 @@
       <c r="N468">
         <v>37.299999999999997</v>
       </c>
-      <c r="O468">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>0</v>
       </c>
@@ -22072,7 +20782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>0</v>
       </c>
@@ -22110,7 +20820,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>0</v>
       </c>
@@ -22151,7 +20861,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>0.23912</v>
       </c>
@@ -22194,11 +20904,8 @@
       <c r="N472">
         <v>21.2</v>
       </c>
-      <c r="O472">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>4.7410000000000001E-2</v>
       </c>
@@ -22241,11 +20948,8 @@
       <c r="N473">
         <v>11.9</v>
       </c>
-      <c r="O473">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>1.46336</v>
       </c>
@@ -22288,11 +20992,8 @@
       <c r="N474">
         <v>50</v>
       </c>
-      <c r="O474">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1.8337699999999999</v>
       </c>
@@ -22332,11 +21033,8 @@
       <c r="N475">
         <v>50</v>
       </c>
-      <c r="O475">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1.51902</v>
       </c>
@@ -22379,11 +21077,8 @@
       <c r="N476">
         <v>50</v>
       </c>
-      <c r="O476">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2.0101900000000001</v>
       </c>
@@ -22426,11 +21121,8 @@
       <c r="N477">
         <v>50</v>
       </c>
-      <c r="O477">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>5.602E-2</v>
       </c>
@@ -22473,11 +21165,8 @@
       <c r="N478">
         <v>50</v>
       </c>
-      <c r="O478">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>1.3809999999999999E-2</v>
       </c>
@@ -22520,11 +21209,8 @@
       <c r="N479">
         <v>50</v>
       </c>
-      <c r="O479">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>0.31533</v>
       </c>
@@ -22567,11 +21253,8 @@
       <c r="N480">
         <v>44.8</v>
       </c>
-      <c r="O480">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>0.52693000000000001</v>
       </c>
@@ -22611,11 +21294,8 @@
       <c r="N481">
         <v>50</v>
       </c>
-      <c r="O481">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>0.33146999999999999</v>
       </c>
@@ -22655,11 +21335,8 @@
       <c r="N482">
         <v>48.3</v>
       </c>
-      <c r="O482">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>1.538E-2</v>
       </c>
@@ -22702,11 +21379,8 @@
       <c r="N483">
         <v>44</v>
       </c>
-      <c r="O483">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>0.61153999999999997</v>
       </c>
@@ -22749,11 +21423,8 @@
       <c r="N484">
         <v>50</v>
       </c>
-      <c r="O484">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>0.52014000000000005</v>
       </c>
@@ -22796,11 +21467,8 @@
       <c r="N485">
         <v>48.8</v>
       </c>
-      <c r="O485">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>0.57833999999999997</v>
       </c>
@@ -22843,11 +21511,8 @@
       <c r="N486">
         <v>50</v>
       </c>
-      <c r="O486">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>3.5779999999999999E-2</v>
       </c>
@@ -22887,11 +21552,8 @@
       <c r="N487">
         <v>45.4</v>
       </c>
-      <c r="O487">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>6.1289999999999997E-2</v>
       </c>
@@ -22931,11 +21593,8 @@
       <c r="N488">
         <v>46</v>
       </c>
-      <c r="O488">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1.5010000000000001E-2</v>
       </c>
@@ -22975,11 +21634,8 @@
       <c r="N489">
         <v>50</v>
       </c>
-      <c r="O489">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>5.6699799999999998</v>
       </c>
@@ -23022,11 +21678,8 @@
       <c r="N490">
         <v>50</v>
       </c>
-      <c r="O490">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>6.5387599999999999</v>
       </c>
@@ -23069,11 +21722,8 @@
       <c r="N491">
         <v>50</v>
       </c>
-      <c r="O491">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>9.2323000000000004</v>
       </c>
@@ -23116,11 +21766,8 @@
       <c r="N492">
         <v>50</v>
       </c>
-      <c r="O492">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>8.2672500000000007</v>
       </c>
@@ -23163,11 +21810,8 @@
       <c r="N493">
         <v>50</v>
       </c>
-      <c r="O493">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>0.21124000000000001</v>
       </c>
@@ -23210,11 +21854,8 @@
       <c r="N494">
         <v>16.5</v>
       </c>
-      <c r="O494">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>8.1869999999999998E-2</v>
       </c>
@@ -23254,11 +21895,8 @@
       <c r="N495">
         <v>43.8</v>
       </c>
-      <c r="O495">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>0</v>
       </c>
@@ -23736,9 +22374,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O507">
-    <sortCondition ref="O359"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
